--- a/test-wi-backend-final.xlsx
+++ b/test-wi-backend-final.xlsx
@@ -1275,10 +1275,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,6 +1330,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,53 +1642,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="12" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18"/>
-    <col min="4" max="4" width="27.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="37.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="90.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="12" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="27.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="90.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1708,9 +1715,9 @@
         <v>41</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1737,7 +1744,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1764,7 +1771,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1791,7 +1798,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1818,7 +1825,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1845,7 +1852,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1872,7 +1879,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1899,7 +1906,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1926,7 +1933,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1953,7 +1960,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1980,7 +1987,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2007,7 +2014,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2034,7 +2041,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2051,7 +2058,7 @@
         <f t="shared" ref="E15:E17" si="0">CONCATENATE(B15,"_",C15,"_",D15)</f>
         <v>project_fullinfo_ok</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2061,7 +2068,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2078,7 +2085,7 @@
         <f t="shared" si="0"/>
         <v>project_fullinfo_ko_method</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2088,7 +2095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2105,7 +2112,7 @@
         <f t="shared" si="0"/>
         <v>project_fullinfo_ko_param_idProject</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2115,1078 +2122,1078 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="13" t="str">
+      <c r="E31" s="14" t="str">
         <f t="shared" ref="E31:E43" si="1">CONCATENATE(B31,"_",C31,"_",D31)</f>
         <v>dataset_new_ok</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="13" t="str">
+      <c r="E32" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_new_ko_method</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="13" t="str">
+      <c r="E33" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_new_ko_param_idWell</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_edit_ok</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_edit_ko_method</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_edit_ko_param_idWell</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="13" t="str">
+      <c r="E37" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_edit_ko_param_idDataset</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="G37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_delete_ok</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_delete_ko_method</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="13" t="str">
+      <c r="E40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_delete_ko_param_idDataset</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="13" t="str">
+      <c r="E41" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_info_ok</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="13" t="str">
+      <c r="E42" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_info_ko_method</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="13" t="str">
+      <c r="E43" s="14" t="str">
         <f t="shared" si="1"/>
         <v>dataset_info_ko_param_idDataset</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="8"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="4"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3213,7 +3220,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:10" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3238,9 +3245,9 @@
       <c r="H58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3295,9 +3302,9 @@
         <v>121</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3324,7 +3331,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3351,7 +3358,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3378,7 +3385,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3404,9 +3411,9 @@
         <v>121</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3433,7 +3440,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3460,63 +3467,63 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="8" t="s">
+      <c r="G67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="9"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="9"/>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3543,169 +3550,169 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="3" t="s">
+      <c r="G70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="G74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3732,7 +3739,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:10" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3759,7 +3766,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:10" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3786,7 +3793,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3813,7 +3820,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3840,7 +3847,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
